--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:50:46+00:00</t>
+    <t>2024-12-04T12:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T12:34:01+00:00</t>
+    <t>2024-12-11T08:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T08:30:00+00:00</t>
+    <t>2024-12-11T08:36:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T08:36:14+00:00</t>
+    <t>2024-12-11T08:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T08:47:01+00:00</t>
+    <t>2024-12-11T11:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/233-ig---revoir-les-liens-vers-la-doc-fhir-r4-et-non-r5/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T11:04:54+00:00</t>
+    <t>2024-12-11T15:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
